--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H2">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>692.5067309481047</v>
+        <v>839.4544909803589</v>
       </c>
       <c r="R2">
-        <v>692.5067309481047</v>
+        <v>7555.09041882323</v>
       </c>
       <c r="S2">
-        <v>0.02063341296646013</v>
+        <v>0.02387741125917979</v>
       </c>
       <c r="T2">
-        <v>0.02063341296646013</v>
+        <v>0.02387741125917979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H3">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>664.4249643421381</v>
+        <v>728.5414746981386</v>
       </c>
       <c r="R3">
-        <v>664.4249643421381</v>
+        <v>6556.873272283247</v>
       </c>
       <c r="S3">
-        <v>0.01979670963735981</v>
+        <v>0.02072260568934618</v>
       </c>
       <c r="T3">
-        <v>0.01979670963735981</v>
+        <v>0.02072260568934617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H4">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>918.9738841156908</v>
+        <v>1018.629341590075</v>
       </c>
       <c r="R4">
-        <v>918.9738841156908</v>
+        <v>9167.664074310671</v>
       </c>
       <c r="S4">
-        <v>0.0273810589976372</v>
+        <v>0.02897385381953103</v>
       </c>
       <c r="T4">
-        <v>0.0273810589976372</v>
+        <v>0.02897385381953102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H5">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>9460.950651511486</v>
+        <v>10502.34742368355</v>
       </c>
       <c r="R5">
-        <v>9460.950651511486</v>
+        <v>94521.12681315195</v>
       </c>
       <c r="S5">
-        <v>0.2818914143703324</v>
+        <v>0.2987283662384347</v>
       </c>
       <c r="T5">
-        <v>0.2818914143703324</v>
+        <v>0.2987283662384347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H6">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>9077.300650445686</v>
+        <v>9114.723623560474</v>
       </c>
       <c r="R6">
-        <v>9077.300650445686</v>
+        <v>82032.51261204427</v>
       </c>
       <c r="S6">
-        <v>0.2704604656837605</v>
+        <v>0.2592588482305315</v>
       </c>
       <c r="T6">
-        <v>0.2704604656837605</v>
+        <v>0.2592588482305314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H7">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>12554.91994387261</v>
+        <v>12743.98952686918</v>
       </c>
       <c r="R7">
-        <v>12554.91994387261</v>
+        <v>114695.9057418226</v>
       </c>
       <c r="S7">
-        <v>0.3740770109311514</v>
+        <v>0.3624895480163143</v>
       </c>
       <c r="T7">
-        <v>0.3740770109311514</v>
+        <v>0.3624895480163143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>58.8219878975831</v>
+        <v>67.88038446039334</v>
       </c>
       <c r="R8">
-        <v>58.8219878975831</v>
+        <v>610.9234601435401</v>
       </c>
       <c r="S8">
-        <v>0.00175261598704938</v>
+        <v>0.001930787045166897</v>
       </c>
       <c r="T8">
-        <v>0.00175261598704938</v>
+        <v>0.001930787045166897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>56.43670373842782</v>
+        <v>58.91168125159113</v>
       </c>
       <c r="R9">
-        <v>56.43670373842782</v>
+        <v>530.2051312643201</v>
       </c>
       <c r="S9">
-        <v>0.001681545843036737</v>
+        <v>0.001675681595998353</v>
       </c>
       <c r="T9">
-        <v>0.001681545843036737</v>
+        <v>0.001675681595998353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>78.05826033725432</v>
+        <v>82.3689098964978</v>
       </c>
       <c r="R10">
-        <v>78.05826033725432</v>
+        <v>741.3201890684801</v>
       </c>
       <c r="S10">
-        <v>0.002325765583212389</v>
+        <v>0.002342898105497204</v>
       </c>
       <c r="T10">
-        <v>0.002325765583212389</v>
+        <v>0.002342898105497203</v>
       </c>
     </row>
   </sheetData>
